--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -28,7 +28,10 @@
     <t>Loc</t>
   </si>
   <si>
-    <t>ML</t>
+    <t>ML_x</t>
+  </si>
+  <si>
+    <t>ML_y</t>
   </si>
   <si>
     <t>ML1</t>
@@ -52,6 +55,9 @@
     <t>E</t>
   </si>
   <si>
+    <t>thien</t>
+  </si>
+  <si>
     <t>a@gmail.com</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>e@gmeil.com</t>
+  </si>
+  <si>
+    <t>nl.chuongthien@gmail.com</t>
   </si>
   <si>
     <t>Stand</t>
@@ -431,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,68 +468,74 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -529,53 +544,73 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>1</v>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>205</v>
       </c>
       <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
